--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H2">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N2">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q2">
-        <v>0.3447752577682222</v>
+        <v>0.007618661367999999</v>
       </c>
       <c r="R2">
-        <v>3.102977319914</v>
+        <v>0.068567952312</v>
       </c>
       <c r="S2">
-        <v>0.0003253243499325175</v>
+        <v>4.745488807717438E-06</v>
       </c>
       <c r="T2">
-        <v>0.0003253243499325176</v>
+        <v>4.745488807717438E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H3">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.826363</v>
       </c>
       <c r="O3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q3">
-        <v>0.1025401355996667</v>
+        <v>0.002672797277</v>
       </c>
       <c r="R3">
-        <v>0.922861220397</v>
+        <v>0.024055175493</v>
       </c>
       <c r="S3">
-        <v>9.675521141479202E-05</v>
+        <v>1.664823904180268E-06</v>
       </c>
       <c r="T3">
-        <v>9.675521141479204E-05</v>
+        <v>1.664823904180268E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H4">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N4">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O4">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P4">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q4">
-        <v>2.310961187669666</v>
+        <v>0.100429587225</v>
       </c>
       <c r="R4">
-        <v>20.798650689027</v>
+        <v>0.903866285025</v>
       </c>
       <c r="S4">
-        <v>0.002180585552932351</v>
+        <v>6.255527829884768E-05</v>
       </c>
       <c r="T4">
-        <v>0.002180585552932351</v>
+        <v>6.255527829884768E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H5">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N5">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q5">
-        <v>0.156960621971</v>
+        <v>0.003398562399666666</v>
       </c>
       <c r="R5">
-        <v>1.412645597739</v>
+        <v>0.030587061597</v>
       </c>
       <c r="S5">
-        <v>0.0001481055010683126</v>
+        <v>2.11688629418389E-06</v>
       </c>
       <c r="T5">
-        <v>0.0001481055010683126</v>
+        <v>2.11688629418389E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N6">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q6">
-        <v>47.75105484349778</v>
+        <v>40.48120352570667</v>
       </c>
       <c r="R6">
-        <v>429.75949359148</v>
+        <v>364.33083173136</v>
       </c>
       <c r="S6">
-        <v>0.04505712206876558</v>
+        <v>0.02521480992199582</v>
       </c>
       <c r="T6">
-        <v>0.04505712206876558</v>
+        <v>0.02521480992199582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.826363</v>
       </c>
       <c r="O7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q7">
         <v>14.20171409739334</v>
@@ -883,10 +883,10 @@
         <v>127.81542687654</v>
       </c>
       <c r="S7">
-        <v>0.01340050743945175</v>
+        <v>0.008845920831007464</v>
       </c>
       <c r="T7">
-        <v>0.01340050743945175</v>
+        <v>0.008845920831007464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N8">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O8">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P8">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q8">
-        <v>320.0659906047933</v>
+        <v>533.6253134355001</v>
       </c>
       <c r="R8">
-        <v>2880.59391544314</v>
+        <v>4802.6278209195</v>
       </c>
       <c r="S8">
-        <v>0.3020090855794839</v>
+        <v>0.3323829253074732</v>
       </c>
       <c r="T8">
-        <v>0.3020090855794839</v>
+        <v>0.3323829253074732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N9">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q9">
-        <v>21.73890120922</v>
+        <v>18.05801433485111</v>
       </c>
       <c r="R9">
-        <v>195.65011088298</v>
+        <v>162.52212901366</v>
       </c>
       <c r="S9">
-        <v>0.02051247514080913</v>
+        <v>0.01124792148861879</v>
       </c>
       <c r="T9">
-        <v>0.02051247514080912</v>
+        <v>0.01124792148861879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H10">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I10">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J10">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N10">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q10">
-        <v>2.187917837821111</v>
+        <v>4.247379991061334</v>
       </c>
       <c r="R10">
-        <v>19.69126054039</v>
+        <v>38.22641991955201</v>
       </c>
       <c r="S10">
-        <v>0.002064483840581778</v>
+        <v>0.002645595234664662</v>
       </c>
       <c r="T10">
-        <v>0.002064483840581779</v>
+        <v>0.002645595234664662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H11">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I11">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J11">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.826363</v>
       </c>
       <c r="O11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q11">
-        <v>0.6507119832883334</v>
+        <v>1.490076159858667</v>
       </c>
       <c r="R11">
-        <v>5.856407849595</v>
+        <v>13.410685438728</v>
       </c>
       <c r="S11">
-        <v>0.000614001289787703</v>
+        <v>0.0009281341429553721</v>
       </c>
       <c r="T11">
-        <v>0.0006140012897877031</v>
+        <v>0.0009281341429553721</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H12">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I12">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J12">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N12">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O12">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P12">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q12">
-        <v>14.66518577273833</v>
+        <v>55.9891821786</v>
       </c>
       <c r="R12">
-        <v>131.986671954645</v>
+        <v>503.9026396074</v>
       </c>
       <c r="S12">
-        <v>0.01383783180683749</v>
+        <v>0.03487437287838765</v>
       </c>
       <c r="T12">
-        <v>0.0138378318068375</v>
+        <v>0.03487437287838765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H13">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I13">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J13">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N13">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q13">
-        <v>0.996060294085</v>
+        <v>1.894687955990223</v>
       </c>
       <c r="R13">
-        <v>8.964542646765</v>
+        <v>17.052191603912</v>
       </c>
       <c r="S13">
-        <v>0.0009398663632778282</v>
+        <v>0.001180157517832945</v>
       </c>
       <c r="T13">
-        <v>0.0009398663632778283</v>
+        <v>0.001180157517832945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H14">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I14">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J14">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N14">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O14">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P14">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q14">
-        <v>75.05395046605889</v>
+        <v>62.44438095373068</v>
       </c>
       <c r="R14">
-        <v>675.4855541945301</v>
+        <v>561.9994285835761</v>
       </c>
       <c r="S14">
-        <v>0.07081969223456402</v>
+        <v>0.03889516761637658</v>
       </c>
       <c r="T14">
-        <v>0.07081969223456404</v>
+        <v>0.03889516761637658</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H15">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I15">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J15">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.826363</v>
       </c>
       <c r="O15">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P15">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q15">
-        <v>22.32190995345167</v>
+        <v>21.90688932285434</v>
       </c>
       <c r="R15">
-        <v>200.897189581065</v>
+        <v>197.162003905689</v>
       </c>
       <c r="S15">
-        <v>0.0210625927506106</v>
+        <v>0.01364529712925153</v>
       </c>
       <c r="T15">
-        <v>0.0210625927506106</v>
+        <v>0.01364529712925153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H16">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I16">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J16">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N16">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O16">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P16">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q16">
-        <v>503.0719652886017</v>
+        <v>823.1450514449252</v>
       </c>
       <c r="R16">
-        <v>4527.647687597415</v>
+        <v>7408.305463004326</v>
       </c>
       <c r="S16">
-        <v>0.4746905596886279</v>
+        <v>0.5127181062498547</v>
       </c>
       <c r="T16">
-        <v>0.4746905596886279</v>
+        <v>0.5127181062498547</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H17">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I17">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J17">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N17">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O17">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P17">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q17">
-        <v>34.16867794629501</v>
+        <v>27.85543482365345</v>
       </c>
       <c r="R17">
-        <v>307.5181015166551</v>
+        <v>250.698913412881</v>
       </c>
       <c r="S17">
-        <v>0.03224101118185436</v>
+        <v>0.01735050920427653</v>
       </c>
       <c r="T17">
-        <v>0.03224101118185436</v>
+        <v>0.01735050920427653</v>
       </c>
     </row>
   </sheetData>
